--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA0139-BDFF-41C1-BE95-A071C4D9580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D2B55-CE1F-4062-9D26-96FB598D09D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>airline_zh</t>
   </si>
@@ -515,6 +515,15 @@
   </si>
   <si>
     <t>source_date</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/17/P2022011700524.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/17/P2022011700523.htm</t>
+  </si>
+  <si>
+    <t>伊斯坦堡</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1820,18 +1829,56 @@
       <c r="J27" s="3">
         <v>44577</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="4" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44578</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44591</v>
+      </c>
+      <c r="J28" s="3">
+        <v>44578</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{92586517-D17B-44BA-A3F9-99FFCA31D674}"/>
+      <autoFilter ref="A1:K26" xr:uid="{A5E9CA64-7A18-435B-9438-FC65996C7D48}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -1885,6 +1932,7 @@
     <hyperlink ref="L25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="K26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="L26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K28" r:id="rId51" xr:uid="{11978C58-E853-4AF5-9002-B0D66F9C28B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D2B55-CE1F-4062-9D26-96FB598D09D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EDDC0C-7E8B-4045-8933-A6422BE28CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>airline_zh</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>伊斯坦布爾</t>
-  </si>
-  <si>
     <t>Istanbul</t>
   </si>
   <si>
@@ -524,6 +521,12 @@
   </si>
   <si>
     <t>伊斯坦堡</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/18/P2022011800583.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/18/P2022011800582.htm</t>
   </si>
 </sst>
 </file>
@@ -802,15 +805,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -839,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -848,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -962,7 +965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -979,10 +982,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="2">
         <v>44560</v>
@@ -1000,27 +1003,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="2">
         <v>44560</v>
@@ -1038,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1055,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H7" s="2">
         <v>44561</v>
@@ -1070,33 +1073,33 @@
         <v>44561</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>44561</v>
@@ -1108,33 +1111,33 @@
         <v>44561</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="3">
         <v>44563</v>
@@ -1146,13 +1149,13 @@
         <v>44563</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,19 +1163,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="3">
         <v>44563</v>
@@ -1184,13 +1187,13 @@
         <v>44563</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,19 +1201,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="3">
         <v>44564</v>
@@ -1222,13 +1225,13 @@
         <v>44564</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,19 +1239,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="3">
         <v>44565</v>
@@ -1260,33 +1263,33 @@
         <v>44565</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>44565</v>
@@ -1298,21 +1301,21 @@
         <v>44565</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -1321,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="3">
         <v>44565</v>
@@ -1336,33 +1339,33 @@
         <v>44565</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="3">
         <v>44565</v>
@@ -1374,33 +1377,33 @@
         <v>44565</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H16" s="3">
         <v>44565</v>
@@ -1412,21 +1415,21 @@
         <v>44565</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1450,33 +1453,33 @@
         <v>44566</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="3">
         <v>44566</v>
@@ -1488,13 +1491,13 @@
         <v>44566</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1511,10 +1514,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="3">
         <v>44566</v>
@@ -1526,33 +1529,33 @@
         <v>44566</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="3">
         <v>44567</v>
@@ -1564,13 +1567,13 @@
         <v>44567</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1578,19 +1581,19 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="3">
         <v>44567</v>
@@ -1602,33 +1605,33 @@
         <v>44567</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="3">
         <v>44568</v>
@@ -1640,21 +1643,21 @@
         <v>44568</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1663,10 +1666,10 @@
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H23" s="3">
         <v>44570</v>
@@ -1678,33 +1681,33 @@
         <v>44570</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="3">
         <v>44570</v>
@@ -1716,33 +1719,33 @@
         <v>44570</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="3">
         <v>44571</v>
@@ -1754,33 +1757,33 @@
         <v>44571</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="3">
         <v>44571</v>
@@ -1792,33 +1795,33 @@
         <v>44571</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>156</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H27" s="3">
         <v>44577</v>
@@ -1830,13 +1833,13 @@
         <v>44577</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1853,10 +1856,10 @@
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="3">
         <v>44578</v>
@@ -1868,17 +1871,55 @@
         <v>44578</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>164</v>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44579</v>
+      </c>
+      <c r="I29" s="3">
+        <v>44592</v>
+      </c>
+      <c r="J29" s="3">
+        <v>44579</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{A5E9CA64-7A18-435B-9438-FC65996C7D48}"/>
+      <autoFilter ref="A1:K26" xr:uid="{1FD8CC42-D53D-4368-B8C0-ED638068C876}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EDDC0C-7E8B-4045-8933-A6422BE28CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376A1A2-F74A-4464-A313-A43C4F27C807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>airline_zh</t>
   </si>
@@ -527,6 +527,33 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/18/P2022011800582.htm</t>
+  </si>
+  <si>
+    <t>埃塞俄比亞航空</t>
+  </si>
+  <si>
+    <t>ET608</t>
+  </si>
+  <si>
+    <t>埃塞俄比亞</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/22/P2022012200665.htm</t>
+  </si>
+  <si>
+    <t>Ethiopian Airlines</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>亞的斯亞貝巴</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/22/P2022012200666.htm</t>
   </si>
 </sst>
 </file>
@@ -537,7 +564,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,6 +586,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,18 +610,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,10 +841,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1915,11 +1951,87 @@
         <v>166</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="3">
+        <v>44583</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44596</v>
+      </c>
+      <c r="J30" s="3">
+        <v>44583</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="3">
+        <v>44583</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44596</v>
+      </c>
+      <c r="J31" s="3">
+        <v>44583</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{1FD8CC42-D53D-4368-B8C0-ED638068C876}"/>
+      <autoFilter ref="A1:K26" xr:uid="{E81A1450-92C0-4FE1-947E-20610635D081}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -1974,6 +2086,10 @@
     <hyperlink ref="K26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="L26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="K28" r:id="rId51" xr:uid="{11978C58-E853-4AF5-9002-B0D66F9C28B0}"/>
+    <hyperlink ref="K30" r:id="rId52" xr:uid="{E872D896-8751-48A2-A643-D3FA71BF80A3}"/>
+    <hyperlink ref="L30" r:id="rId53" xr:uid="{1AFFFFC6-965E-4075-BF29-DED551F3E2B4}"/>
+    <hyperlink ref="K31" r:id="rId54" xr:uid="{72FC5DC5-5CBA-4AC6-95FE-B6B04545B07E}"/>
+    <hyperlink ref="L31" r:id="rId55" xr:uid="{AAF2F3DC-D6F9-4C0A-B8D7-AF632BB1BA67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376A1A2-F74A-4464-A313-A43C4F27C807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D57174-29BC-4C83-B5D2-C580CDF35967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="178">
   <si>
     <t>airline_zh</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/22/P2022012200666.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/23/P2022012300646.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/23/P2022012300648.htm</t>
   </si>
 </sst>
 </file>
@@ -841,10 +847,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1915,7 @@
       <c r="K28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2025,13 +2031,51 @@
       </c>
       <c r="L31" s="6" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="3">
+        <v>44584</v>
+      </c>
+      <c r="I32" s="3">
+        <v>44597</v>
+      </c>
+      <c r="J32" s="3">
+        <v>44584</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{E81A1450-92C0-4FE1-947E-20610635D081}"/>
+      <autoFilter ref="A1:K26" xr:uid="{78AB61A5-8582-47CD-A1B3-711696E53AE0}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -2090,6 +2134,7 @@
     <hyperlink ref="L30" r:id="rId53" xr:uid="{1AFFFFC6-965E-4075-BF29-DED551F3E2B4}"/>
     <hyperlink ref="K31" r:id="rId54" xr:uid="{72FC5DC5-5CBA-4AC6-95FE-B6B04545B07E}"/>
     <hyperlink ref="L31" r:id="rId55" xr:uid="{AAF2F3DC-D6F9-4C0A-B8D7-AF632BB1BA67}"/>
+    <hyperlink ref="L28" r:id="rId56" xr:uid="{0322E549-E54B-4E81-931B-2AD856525A89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D57174-29BC-4C83-B5D2-C580CDF35967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F7704-5B3E-45B5-A3BE-F56336A68362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>airline_zh</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/23/P2022012300648.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/25/P2022012500854.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/25/P2022012500853.htm</t>
   </si>
 </sst>
 </file>
@@ -847,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:L32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2071,11 +2077,49 @@
         <v>177</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="3">
+        <v>44586</v>
+      </c>
+      <c r="I33" s="3">
+        <v>44599</v>
+      </c>
+      <c r="J33" s="3">
+        <v>44586</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{78AB61A5-8582-47CD-A1B3-711696E53AE0}"/>
+      <autoFilter ref="A1:K26" xr:uid="{EB32B2E0-9E9B-4D59-87FF-2214817C5EE4}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F7704-5B3E-45B5-A3BE-F56336A68362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F1696-AC36-4F35-94D0-3D85379B6C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
   <si>
     <t>airline_zh</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/25/P2022012500853.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/26/P2022012600884.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/26/P2022012600887.htm</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2115,11 +2121,87 @@
         <v>179</v>
       </c>
     </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="3">
+        <v>44587</v>
+      </c>
+      <c r="I34" s="3">
+        <v>44600</v>
+      </c>
+      <c r="J34" s="3">
+        <v>44587</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44587</v>
+      </c>
+      <c r="I35" s="3">
+        <v>44600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>44587</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{EB32B2E0-9E9B-4D59-87FF-2214817C5EE4}"/>
+      <autoFilter ref="A1:K26" xr:uid="{4B037E6B-10FC-4117-BE55-234F4ED904B8}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F1696-AC36-4F35-94D0-3D85379B6C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBF0D8-53E6-4D17-81B8-DACFEE5C6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="184">
   <si>
     <t>airline_zh</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/26/P2022012600887.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/27/P2022012700832.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202201/27/P2022012700846.htm</t>
   </si>
 </sst>
 </file>
@@ -859,10 +865,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2197,11 +2203,49 @@
         <v>180</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3">
+        <v>44588</v>
+      </c>
+      <c r="I36" s="3">
+        <v>44601</v>
+      </c>
+      <c r="J36" s="3">
+        <v>44588</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{4B037E6B-10FC-4117-BE55-234F4ED904B8}"/>
+      <autoFilter ref="A1:K26" xr:uid="{113C2A9C-0095-4BBE-9637-D8B8F14964D6}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBF0D8-53E6-4D17-81B8-DACFEE5C6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90048955-4920-4CFD-814C-8B529DB15CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
   <si>
     <t>airline_zh</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202201/27/P2022012700846.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/03/P2022020300570.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/03/P2022020300571.htm</t>
   </si>
 </sst>
 </file>
@@ -865,10 +871,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2241,11 +2247,87 @@
         <v>183</v>
       </c>
     </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="3">
+        <v>44595</v>
+      </c>
+      <c r="I37" s="3">
+        <v>44608</v>
+      </c>
+      <c r="J37" s="3">
+        <v>44595</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44595</v>
+      </c>
+      <c r="I38" s="3">
+        <v>44608</v>
+      </c>
+      <c r="J38" s="3">
+        <v>44595</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{113C2A9C-0095-4BBE-9637-D8B8F14964D6}"/>
+      <autoFilter ref="A1:K26" xr:uid="{19EB6342-05B5-4703-A56C-4E8C2DECDF60}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90048955-4920-4CFD-814C-8B529DB15CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99862DC7-9160-452B-803A-9F9D1EA37099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="193">
   <si>
     <t>airline_zh</t>
   </si>
@@ -584,6 +584,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202202/03/P2022020300571.htm</t>
+  </si>
+  <si>
+    <t>CX724</t>
+  </si>
+  <si>
+    <t>馬來西亞</t>
+  </si>
+  <si>
+    <t>吉隆坡</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/07/P2022020700685.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/07/P2022020700687.htm</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
 </sst>
 </file>
@@ -871,10 +892,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2323,11 +2344,49 @@
         <v>185</v>
       </c>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="3">
+        <v>44599</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44612</v>
+      </c>
+      <c r="J39" s="3">
+        <v>44599</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{19EB6342-05B5-4703-A56C-4E8C2DECDF60}"/>
+      <autoFilter ref="A1:K26" xr:uid="{6610B2B5-FC7D-4525-A541-15549834889A}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99862DC7-9160-452B-803A-9F9D1EA37099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143A576-6736-4D81-9775-83A56AAC2F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="195">
   <si>
     <t>airline_zh</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>Malaysia</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/08/P2022020800598.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/08/P2022020800600.htm</t>
   </si>
 </sst>
 </file>
@@ -892,10 +898,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2382,11 +2388,46 @@
         <v>190</v>
       </c>
     </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="3">
+        <v>44600</v>
+      </c>
+      <c r="I40" s="3">
+        <v>44613</v>
+      </c>
+      <c r="J40" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{6610B2B5-FC7D-4525-A541-15549834889A}"/>
+      <autoFilter ref="A1:K26" xr:uid="{8F13EFDD-B653-46D2-B137-83E6A6F13766}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143A576-6736-4D81-9775-83A56AAC2F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51CE30-B049-473F-A863-AEEDBF7416E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,10 +898,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2423,11 +2423,24 @@
         <v>194</v>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{8F13EFDD-B653-46D2-B137-83E6A6F13766}"/>
+      <autoFilter ref="A1:K26" xr:uid="{6FB74FFD-E4F1-44CB-9C6F-BC61CD74A1EB}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51CE30-B049-473F-A863-AEEDBF7416E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83F1F6-DD1D-46FC-864F-241C00A60B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
   <si>
     <t>airline_zh</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202202/08/P2022020800600.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/12/P2022021200591.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/12/P2022021200589.htm</t>
   </si>
 </sst>
 </file>
@@ -898,10 +904,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2424,23 +2430,86 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="A41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="3">
+        <v>44604</v>
+      </c>
+      <c r="I41" s="3">
+        <v>44617</v>
+      </c>
+      <c r="J41" s="3">
+        <v>44604</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="3">
+        <v>44604</v>
+      </c>
+      <c r="I42" s="3">
+        <v>44617</v>
+      </c>
+      <c r="J42" s="3">
+        <v>44604</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{6FB74FFD-E4F1-44CB-9C6F-BC61CD74A1EB}"/>
+      <autoFilter ref="A1:K26" xr:uid="{1AE8549D-57B4-4E33-8892-0B56EAEDB415}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -2500,6 +2569,8 @@
     <hyperlink ref="K31" r:id="rId54" xr:uid="{72FC5DC5-5CBA-4AC6-95FE-B6B04545B07E}"/>
     <hyperlink ref="L31" r:id="rId55" xr:uid="{AAF2F3DC-D6F9-4C0A-B8D7-AF632BB1BA67}"/>
     <hyperlink ref="L28" r:id="rId56" xr:uid="{0322E549-E54B-4E81-931B-2AD856525A89}"/>
+    <hyperlink ref="K41" r:id="rId57" xr:uid="{5E394BA6-2702-47B4-8972-E5FAC49A6DEA}"/>
+    <hyperlink ref="L41" r:id="rId58" xr:uid="{8B88A62F-2025-4113-8980-6E3FA5C5C353}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83F1F6-DD1D-46FC-864F-241C00A60B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D064C4-50C2-46E2-8EEA-F2DA8E915F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="204">
   <si>
     <t>airline_zh</t>
   </si>
@@ -617,6 +617,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202202/12/P2022021200589.htm</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>雅加達</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/14/P2022021400689.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/14/P2022021400691.htm</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>CX796</t>
   </si>
 </sst>
 </file>
@@ -904,10 +925,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2505,11 +2526,46 @@
         <v>196</v>
       </c>
     </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="3">
+        <v>44606</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44619</v>
+      </c>
+      <c r="J43" s="3">
+        <v>44606</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{1AE8549D-57B4-4E33-8892-0B56EAEDB415}"/>
+      <autoFilter ref="A1:K26" xr:uid="{2A1FD43B-DC9E-464C-9143-70BEDEB6F4B7}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D064C4-50C2-46E2-8EEA-F2DA8E915F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0E2A2-D8D6-48DB-AA5C-2014A1FD0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="213">
   <si>
     <t>airline_zh</t>
   </si>
@@ -638,6 +638,33 @@
   </si>
   <si>
     <t>CX796</t>
+  </si>
+  <si>
+    <t>SQ882</t>
+  </si>
+  <si>
+    <t>SQ894</t>
+  </si>
+  <si>
+    <t>GA876</t>
+  </si>
+  <si>
+    <t>嘉魯達印尼航空</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>Garuda Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/16/P2022021600686.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/16/P2022021600683.htm</t>
   </si>
 </sst>
 </file>
@@ -925,10 +952,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2416,6 +2443,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
@@ -2527,6 +2557,9 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2559,13 +2592,127 @@
       </c>
       <c r="L43" s="4" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="3">
+        <v>44608</v>
+      </c>
+      <c r="I44" s="3">
+        <v>44621</v>
+      </c>
+      <c r="J44" s="3">
+        <v>44608</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44608</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44621</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44608</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="3">
+        <v>44608</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44621</v>
+      </c>
+      <c r="J46" s="3">
+        <v>44608</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{2A1FD43B-DC9E-464C-9143-70BEDEB6F4B7}"/>
+      <autoFilter ref="A1:K26" xr:uid="{4F890D56-4758-45C9-A6E1-F2B160E5DB71}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0E2A2-D8D6-48DB-AA5C-2014A1FD0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FAB8E1-9B3E-417B-A623-0D98A9A82DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="220">
   <si>
     <t>airline_zh</t>
   </si>
@@ -665,6 +665,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202202/16/P2022021600683.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/20/P2022022000572.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/20/P2022022000573.htm</t>
+  </si>
+  <si>
+    <t>TR980</t>
+  </si>
+  <si>
+    <t>酷航</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/21/P2022022100674.htm</t>
+  </si>
+  <si>
+    <t>SCOOT</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202202/21/P2022022100675.htm?fontSize=1</t>
   </si>
 </sst>
 </file>
@@ -952,10 +973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44:L46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2704,15 +2725,129 @@
       <c r="K46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="6" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="3">
+        <v>44612</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44625</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44612</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="3">
+        <v>44613</v>
+      </c>
+      <c r="I48" s="3">
+        <v>44626</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44613</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="3">
+        <v>44613</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44626</v>
+      </c>
+      <c r="J49" s="3">
+        <v>44613</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{4F890D56-4758-45C9-A6E1-F2B160E5DB71}"/>
+      <autoFilter ref="A1:K26" xr:uid="{0D0903AD-74AF-4E8C-8133-452E44C88D3E}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -2774,6 +2909,7 @@
     <hyperlink ref="L28" r:id="rId56" xr:uid="{0322E549-E54B-4E81-931B-2AD856525A89}"/>
     <hyperlink ref="K41" r:id="rId57" xr:uid="{5E394BA6-2702-47B4-8972-E5FAC49A6DEA}"/>
     <hyperlink ref="L41" r:id="rId58" xr:uid="{8B88A62F-2025-4113-8980-6E3FA5C5C353}"/>
+    <hyperlink ref="K47" r:id="rId59" xr:uid="{A5BF09DF-9B4D-4FC1-A8C2-BD090C41681A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FAB8E1-9B3E-417B-A623-0D98A9A82DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4137110-100C-4F2A-97E0-3730208A074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4137110-100C-4F2A-97E0-3730208A074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D548-4B58-42A7-9DBB-64FCEDA94BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="222">
   <si>
     <t>airline_zh</t>
   </si>
@@ -686,6 +686,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202202/21/P2022022100675.htm?fontSize=1</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/01/P2022030100643.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/01/P2022030100642.htm</t>
   </si>
 </sst>
 </file>
@@ -973,10 +979,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2843,11 +2849,87 @@
         <v>219</v>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="3">
+        <v>44621</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44634</v>
+      </c>
+      <c r="J50" s="3">
+        <v>44621</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="3">
+        <v>44621</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44634</v>
+      </c>
+      <c r="J51" s="3">
+        <v>44621</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{0D0903AD-74AF-4E8C-8133-452E44C88D3E}"/>
+      <autoFilter ref="A1:K26" xr:uid="{1D1E2F66-43AD-4641-8DF9-D728AFA10B91}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D548-4B58-42A7-9DBB-64FCEDA94BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7CFF4-FEE1-422A-8739-3FF510354616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="224">
   <si>
     <t>airline_zh</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/01/P2022030100642.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/02/P2022030200675.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/02/P2022030200673.htm</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -714,21 +720,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -748,21 +742,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,10 +969,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,10 +1046,10 @@
       <c r="J2" s="3">
         <v>44559</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1094,10 +1084,10 @@
       <c r="J3" s="3">
         <v>44559</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1132,10 +1122,10 @@
       <c r="J4" s="3">
         <v>44560</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1170,10 +1160,10 @@
       <c r="J5" s="3">
         <v>44560</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1208,10 +1198,10 @@
       <c r="J6" s="3">
         <v>44560</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1246,10 +1236,10 @@
       <c r="J7" s="3">
         <v>44561</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1284,10 +1274,10 @@
       <c r="J8" s="3">
         <v>44561</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1322,10 +1312,10 @@
       <c r="J9" s="3">
         <v>44563</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1360,10 +1350,10 @@
       <c r="J10" s="3">
         <v>44563</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1398,10 +1388,10 @@
       <c r="J11" s="3">
         <v>44564</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1436,10 +1426,10 @@
       <c r="J12" s="3">
         <v>44565</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1474,10 +1464,10 @@
       <c r="J13" s="3">
         <v>44565</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1512,10 +1502,10 @@
       <c r="J14" s="3">
         <v>44565</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1550,10 +1540,10 @@
       <c r="J15" s="3">
         <v>44565</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1588,10 +1578,10 @@
       <c r="J16" s="3">
         <v>44565</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1626,10 +1616,10 @@
       <c r="J17" s="3">
         <v>44566</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1664,10 +1654,10 @@
       <c r="J18" s="3">
         <v>44566</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1702,10 +1692,10 @@
       <c r="J19" s="3">
         <v>44566</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1728,7 +1718,7 @@
       <c r="F20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H20" s="3">
@@ -1740,10 +1730,10 @@
       <c r="J20" s="3">
         <v>44567</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1766,7 +1756,7 @@
       <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="3">
@@ -1778,10 +1768,10 @@
       <c r="J21" s="3">
         <v>44567</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1816,10 +1806,10 @@
       <c r="J22" s="3">
         <v>44568</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1854,10 +1844,10 @@
       <c r="J23" s="3">
         <v>44570</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1892,10 +1882,10 @@
       <c r="J24" s="3">
         <v>44570</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1930,10 +1920,10 @@
       <c r="J25" s="3">
         <v>44571</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1968,10 +1958,10 @@
       <c r="J26" s="3">
         <v>44571</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2006,10 +1996,10 @@
       <c r="J27" s="3">
         <v>44577</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2044,10 +2034,10 @@
       <c r="J28" s="3">
         <v>44578</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2082,10 +2072,10 @@
       <c r="J29" s="3">
         <v>44579</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2120,10 +2110,10 @@
       <c r="J30" s="3">
         <v>44583</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2158,10 +2148,10 @@
       <c r="J31" s="3">
         <v>44583</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2196,10 +2186,10 @@
       <c r="J32" s="3">
         <v>44584</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2234,10 +2224,10 @@
       <c r="J33" s="3">
         <v>44586</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2272,10 +2262,10 @@
       <c r="J34" s="3">
         <v>44587</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2310,10 +2300,10 @@
       <c r="J35" s="3">
         <v>44587</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2336,7 +2326,7 @@
       <c r="F36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H36" s="3">
@@ -2348,10 +2338,10 @@
       <c r="J36" s="3">
         <v>44588</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2386,10 +2376,10 @@
       <c r="J37" s="3">
         <v>44595</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2424,10 +2414,10 @@
       <c r="J38" s="3">
         <v>44595</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2462,10 +2452,10 @@
       <c r="J39" s="3">
         <v>44599</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2500,10 +2490,10 @@
       <c r="J40" s="3">
         <v>44600</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2538,10 +2528,10 @@
       <c r="J41" s="3">
         <v>44604</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2576,10 +2566,10 @@
       <c r="J42" s="3">
         <v>44604</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2614,10 +2604,10 @@
       <c r="J43" s="3">
         <v>44606</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2652,10 +2642,10 @@
       <c r="J44" s="3">
         <v>44608</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2690,10 +2680,10 @@
       <c r="J45" s="3">
         <v>44608</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2728,10 +2718,10 @@
       <c r="J46" s="3">
         <v>44608</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2766,10 +2756,10 @@
       <c r="J47" s="3">
         <v>44612</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2804,10 +2794,10 @@
       <c r="J48" s="3">
         <v>44613</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2842,10 +2832,10 @@
       <c r="J49" s="3">
         <v>44613</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2880,10 +2870,10 @@
       <c r="J50" s="3">
         <v>44621</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2918,18 +2908,56 @@
       <c r="J51" s="3">
         <v>44621</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="1" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="3">
+        <v>44623</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44636</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44622</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{1D1E2F66-43AD-4641-8DF9-D728AFA10B91}"/>
+      <autoFilter ref="A1:K26" xr:uid="{90307C08-9AFB-441A-B3FF-C6898DC2E7D7}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7CFF4-FEE1-422A-8739-3FF510354616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC8C22-1A07-4C63-BBFF-CB56754869E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="226">
   <si>
     <t>airline_zh</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/02/P2022030200673.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/07/P2022030700699.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/07/P2022030700700.htm</t>
   </si>
 </sst>
 </file>
@@ -969,10 +975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2953,11 +2959,49 @@
         <v>223</v>
       </c>
     </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="3">
+        <v>44628</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44641</v>
+      </c>
+      <c r="J53" s="3">
+        <v>44627</v>
+      </c>
+      <c r="K53" t="s">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{90307C08-9AFB-441A-B3FF-C6898DC2E7D7}"/>
+      <autoFilter ref="A1:K26" xr:uid="{3E6B9F42-31E4-438D-9649-EF9E9BACD34C}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC8C22-1A07-4C63-BBFF-CB56754869E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF63A8-B94D-4878-8B2F-DBD5BA49F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="228">
   <si>
     <t>airline_zh</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/07/P2022030700700.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/11/P2022031100650.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/11/P2022031100649.htm</t>
   </si>
 </sst>
 </file>
@@ -975,10 +981,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2997,11 +3003,49 @@
         <v>225</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="3">
+        <v>44631</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44644</v>
+      </c>
+      <c r="J54" s="3">
+        <v>44631</v>
+      </c>
+      <c r="K54" t="s">
+        <v>226</v>
+      </c>
+      <c r="L54" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{3E6B9F42-31E4-438D-9649-EF9E9BACD34C}"/>
+      <autoFilter ref="A1:K26" xr:uid="{69EC0597-BF02-4399-A854-D97E6E5D512D}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3064,6 +3108,7 @@
     <hyperlink ref="K41" r:id="rId57" xr:uid="{5E394BA6-2702-47B4-8972-E5FAC49A6DEA}"/>
     <hyperlink ref="L41" r:id="rId58" xr:uid="{8B88A62F-2025-4113-8980-6E3FA5C5C353}"/>
     <hyperlink ref="K47" r:id="rId59" xr:uid="{A5BF09DF-9B4D-4FC1-A8C2-BD090C41681A}"/>
+    <hyperlink ref="L54" r:id="rId60" xr:uid="{255F47DA-2964-496D-8154-C5C1E0C5B61B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF63A8-B94D-4878-8B2F-DBD5BA49F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1458FF-C7DA-4E35-B4F4-CF6C4D9798BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
   <si>
     <t>airline_zh</t>
   </si>
@@ -710,6 +710,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/11/P2022031100649.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/13/P2022031300571.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/13/P2022031300572.htm</t>
   </si>
 </sst>
 </file>
@@ -981,10 +987,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3041,11 +3047,49 @@
         <v>227</v>
       </c>
     </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="3">
+        <v>44633</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44646</v>
+      </c>
+      <c r="J55" s="3">
+        <v>44633</v>
+      </c>
+      <c r="K55" t="s">
+        <v>228</v>
+      </c>
+      <c r="L55" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{69EC0597-BF02-4399-A854-D97E6E5D512D}"/>
+      <autoFilter ref="A1:K26" xr:uid="{01B05965-C0EF-4E73-829F-264D73E6FB3A}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1458FF-C7DA-4E35-B4F4-CF6C4D9798BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228A85D-CDE6-4E2F-90E9-01E11F00D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,27 @@
   <definedNames>
     <definedName name="Z_D1F1CDC7_7748_49E3_9626_BB0A720AD03B_.wvu.FilterData" localSheetId="0" hidden="1">工作表1!$A$1:$L$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="篩選器 1" guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="240">
   <si>
     <t>airline_zh</t>
   </si>
@@ -716,6 +728,36 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/13/P2022031300572.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/16/P2022031600715.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/16/P2022031600720.htm</t>
+  </si>
+  <si>
+    <t>MH072</t>
+  </si>
+  <si>
+    <t>馬來西亞航空</t>
+  </si>
+  <si>
+    <t>Malaysia Airlines</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/18/P2022031800693.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/18/P2022031800697.htm</t>
+  </si>
+  <si>
+    <t>CX702</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/20/P2022032000586.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/20/P2022032000585.htm</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,6 +1101,7 @@
         <v>44559</v>
       </c>
       <c r="I2" s="3">
+        <f>H2+13</f>
         <v>44572</v>
       </c>
       <c r="J2" s="3">
@@ -1097,6 +1140,7 @@
         <v>44559</v>
       </c>
       <c r="I3" s="3">
+        <f t="shared" ref="I3:I61" si="0">H3+13</f>
         <v>44572</v>
       </c>
       <c r="J3" s="3">
@@ -1135,6 +1179,7 @@
         <v>44560</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" si="0"/>
         <v>44573</v>
       </c>
       <c r="J4" s="3">
@@ -1173,6 +1218,7 @@
         <v>44560</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="0"/>
         <v>44573</v>
       </c>
       <c r="J5" s="3">
@@ -1211,6 +1257,7 @@
         <v>44560</v>
       </c>
       <c r="I6" s="3">
+        <f t="shared" si="0"/>
         <v>44573</v>
       </c>
       <c r="J6" s="3">
@@ -1249,6 +1296,7 @@
         <v>44561</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="0"/>
         <v>44574</v>
       </c>
       <c r="J7" s="3">
@@ -1287,6 +1335,7 @@
         <v>44561</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="0"/>
         <v>44574</v>
       </c>
       <c r="J8" s="3">
@@ -1325,6 +1374,7 @@
         <v>44563</v>
       </c>
       <c r="I9" s="3">
+        <f t="shared" si="0"/>
         <v>44576</v>
       </c>
       <c r="J9" s="3">
@@ -1363,6 +1413,7 @@
         <v>44563</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="0"/>
         <v>44576</v>
       </c>
       <c r="J10" s="3">
@@ -1401,6 +1452,7 @@
         <v>44564</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="0"/>
         <v>44577</v>
       </c>
       <c r="J11" s="3">
@@ -1439,6 +1491,7 @@
         <v>44565</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="J12" s="3">
@@ -1477,6 +1530,7 @@
         <v>44565</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="J13" s="3">
@@ -1515,6 +1569,7 @@
         <v>44565</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="J14" s="3">
@@ -1553,6 +1608,7 @@
         <v>44565</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="J15" s="3">
@@ -1591,6 +1647,7 @@
         <v>44565</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="0"/>
         <v>44578</v>
       </c>
       <c r="J16" s="3">
@@ -1629,6 +1686,7 @@
         <v>44566</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="0"/>
         <v>44579</v>
       </c>
       <c r="J17" s="3">
@@ -1667,6 +1725,7 @@
         <v>44566</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="0"/>
         <v>44579</v>
       </c>
       <c r="J18" s="3">
@@ -1705,6 +1764,7 @@
         <v>44566</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="0"/>
         <v>44579</v>
       </c>
       <c r="J19" s="3">
@@ -1743,6 +1803,7 @@
         <v>44567</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="0"/>
         <v>44580</v>
       </c>
       <c r="J20" s="3">
@@ -1781,6 +1842,7 @@
         <v>44567</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="0"/>
         <v>44580</v>
       </c>
       <c r="J21" s="3">
@@ -1819,6 +1881,7 @@
         <v>44568</v>
       </c>
       <c r="I22" s="3">
+        <f t="shared" si="0"/>
         <v>44581</v>
       </c>
       <c r="J22" s="3">
@@ -1857,6 +1920,7 @@
         <v>44570</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="0"/>
         <v>44583</v>
       </c>
       <c r="J23" s="3">
@@ -1895,6 +1959,7 @@
         <v>44570</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="0"/>
         <v>44583</v>
       </c>
       <c r="J24" s="3">
@@ -1933,6 +1998,7 @@
         <v>44571</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="0"/>
         <v>44584</v>
       </c>
       <c r="J25" s="3">
@@ -1971,6 +2037,7 @@
         <v>44571</v>
       </c>
       <c r="I26" s="3">
+        <f t="shared" si="0"/>
         <v>44584</v>
       </c>
       <c r="J26" s="3">
@@ -2009,6 +2076,7 @@
         <v>44577</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="0"/>
         <v>44590</v>
       </c>
       <c r="J27" s="3">
@@ -2047,6 +2115,7 @@
         <v>44578</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="0"/>
         <v>44591</v>
       </c>
       <c r="J28" s="3">
@@ -2085,6 +2154,7 @@
         <v>44579</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="0"/>
         <v>44592</v>
       </c>
       <c r="J29" s="3">
@@ -2123,6 +2193,7 @@
         <v>44583</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="0"/>
         <v>44596</v>
       </c>
       <c r="J30" s="3">
@@ -2161,6 +2232,7 @@
         <v>44583</v>
       </c>
       <c r="I31" s="3">
+        <f t="shared" si="0"/>
         <v>44596</v>
       </c>
       <c r="J31" s="3">
@@ -2199,6 +2271,7 @@
         <v>44584</v>
       </c>
       <c r="I32" s="3">
+        <f t="shared" si="0"/>
         <v>44597</v>
       </c>
       <c r="J32" s="3">
@@ -2237,6 +2310,7 @@
         <v>44586</v>
       </c>
       <c r="I33" s="3">
+        <f t="shared" si="0"/>
         <v>44599</v>
       </c>
       <c r="J33" s="3">
@@ -2275,6 +2349,7 @@
         <v>44587</v>
       </c>
       <c r="I34" s="3">
+        <f t="shared" si="0"/>
         <v>44600</v>
       </c>
       <c r="J34" s="3">
@@ -2313,6 +2388,7 @@
         <v>44587</v>
       </c>
       <c r="I35" s="3">
+        <f t="shared" si="0"/>
         <v>44600</v>
       </c>
       <c r="J35" s="3">
@@ -2351,6 +2427,7 @@
         <v>44588</v>
       </c>
       <c r="I36" s="3">
+        <f t="shared" si="0"/>
         <v>44601</v>
       </c>
       <c r="J36" s="3">
@@ -2389,6 +2466,7 @@
         <v>44595</v>
       </c>
       <c r="I37" s="3">
+        <f t="shared" si="0"/>
         <v>44608</v>
       </c>
       <c r="J37" s="3">
@@ -2427,6 +2505,7 @@
         <v>44595</v>
       </c>
       <c r="I38" s="3">
+        <f t="shared" si="0"/>
         <v>44608</v>
       </c>
       <c r="J38" s="3">
@@ -2465,6 +2544,7 @@
         <v>44599</v>
       </c>
       <c r="I39" s="3">
+        <f t="shared" si="0"/>
         <v>44612</v>
       </c>
       <c r="J39" s="3">
@@ -2503,6 +2583,7 @@
         <v>44600</v>
       </c>
       <c r="I40" s="3">
+        <f t="shared" si="0"/>
         <v>44613</v>
       </c>
       <c r="J40" s="3">
@@ -2541,6 +2622,7 @@
         <v>44604</v>
       </c>
       <c r="I41" s="3">
+        <f t="shared" si="0"/>
         <v>44617</v>
       </c>
       <c r="J41" s="3">
@@ -2579,6 +2661,7 @@
         <v>44604</v>
       </c>
       <c r="I42" s="3">
+        <f t="shared" si="0"/>
         <v>44617</v>
       </c>
       <c r="J42" s="3">
@@ -2617,6 +2700,7 @@
         <v>44606</v>
       </c>
       <c r="I43" s="3">
+        <f t="shared" si="0"/>
         <v>44619</v>
       </c>
       <c r="J43" s="3">
@@ -2655,6 +2739,7 @@
         <v>44608</v>
       </c>
       <c r="I44" s="3">
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="J44" s="3">
@@ -2693,6 +2778,7 @@
         <v>44608</v>
       </c>
       <c r="I45" s="3">
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="J45" s="3">
@@ -2731,6 +2817,7 @@
         <v>44608</v>
       </c>
       <c r="I46" s="3">
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="J46" s="3">
@@ -2769,6 +2856,7 @@
         <v>44612</v>
       </c>
       <c r="I47" s="3">
+        <f t="shared" si="0"/>
         <v>44625</v>
       </c>
       <c r="J47" s="3">
@@ -2807,6 +2895,7 @@
         <v>44613</v>
       </c>
       <c r="I48" s="3">
+        <f t="shared" si="0"/>
         <v>44626</v>
       </c>
       <c r="J48" s="3">
@@ -2845,6 +2934,7 @@
         <v>44613</v>
       </c>
       <c r="I49" s="3">
+        <f t="shared" si="0"/>
         <v>44626</v>
       </c>
       <c r="J49" s="3">
@@ -2883,6 +2973,7 @@
         <v>44621</v>
       </c>
       <c r="I50" s="3">
+        <f t="shared" si="0"/>
         <v>44634</v>
       </c>
       <c r="J50" s="3">
@@ -2921,6 +3012,7 @@
         <v>44621</v>
       </c>
       <c r="I51" s="3">
+        <f t="shared" si="0"/>
         <v>44634</v>
       </c>
       <c r="J51" s="3">
@@ -2959,6 +3051,7 @@
         <v>44623</v>
       </c>
       <c r="I52" s="3">
+        <f t="shared" si="0"/>
         <v>44636</v>
       </c>
       <c r="J52" s="3">
@@ -2997,6 +3090,7 @@
         <v>44628</v>
       </c>
       <c r="I53" s="3">
+        <f t="shared" si="0"/>
         <v>44641</v>
       </c>
       <c r="J53" s="3">
@@ -3035,6 +3129,7 @@
         <v>44631</v>
       </c>
       <c r="I54" s="3">
+        <f t="shared" si="0"/>
         <v>44644</v>
       </c>
       <c r="J54" s="3">
@@ -3073,6 +3168,7 @@
         <v>44633</v>
       </c>
       <c r="I55" s="3">
+        <f t="shared" si="0"/>
         <v>44646</v>
       </c>
       <c r="J55" s="3">
@@ -3083,13 +3179,247 @@
       </c>
       <c r="L55" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="3">
+        <v>44637</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="0"/>
+        <v>44650</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44636</v>
+      </c>
+      <c r="K56" t="s">
+        <v>230</v>
+      </c>
+      <c r="L56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" s="3">
+        <v>44637</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="0"/>
+        <v>44650</v>
+      </c>
+      <c r="J57" s="3">
+        <v>44636</v>
+      </c>
+      <c r="K57" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="3">
+        <v>44637</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="0"/>
+        <v>44650</v>
+      </c>
+      <c r="J58" s="3">
+        <v>44636</v>
+      </c>
+      <c r="K58" t="s">
+        <v>230</v>
+      </c>
+      <c r="L58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" s="3">
+        <v>44639</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44638</v>
+      </c>
+      <c r="K59" t="s">
+        <v>236</v>
+      </c>
+      <c r="L59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="3">
+        <v>44640</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="0"/>
+        <v>44653</v>
+      </c>
+      <c r="J60" s="3">
+        <v>44640</v>
+      </c>
+      <c r="K60" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="3">
+        <v>44640</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="0"/>
+        <v>44653</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44640</v>
+      </c>
+      <c r="K61" t="s">
+        <v>238</v>
+      </c>
+      <c r="L61" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{01B05965-C0EF-4E73-829F-264D73E6FB3A}"/>
+      <autoFilter ref="A1:K26" xr:uid="{3E3D086F-5BDD-4AC1-AFD2-A6A8E8F3B631}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3153,6 +3483,9 @@
     <hyperlink ref="L41" r:id="rId58" xr:uid="{8B88A62F-2025-4113-8980-6E3FA5C5C353}"/>
     <hyperlink ref="K47" r:id="rId59" xr:uid="{A5BF09DF-9B4D-4FC1-A8C2-BD090C41681A}"/>
     <hyperlink ref="L54" r:id="rId60" xr:uid="{255F47DA-2964-496D-8154-C5C1E0C5B61B}"/>
+    <hyperlink ref="L56" r:id="rId61" xr:uid="{7F288AC9-021E-4BE5-A302-A5F59E19A461}"/>
+    <hyperlink ref="L57" r:id="rId62" xr:uid="{2BC43F7F-7765-4D46-BA58-496FDB8DB281}"/>
+    <hyperlink ref="L58" r:id="rId63" xr:uid="{228D3346-EED3-42F2-A593-D94AB23467FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228A85D-CDE6-4E2F-90E9-01E11F00D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B9927-DDDE-4DF6-9A61-2F2FD2638482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
   <si>
     <t>airline_zh</t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/20/P2022032000585.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/21/P2022032100576.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202203/21/P2022032100575.htm</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1146,7 @@
         <v>44559</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I61" si="0">H3+13</f>
+        <f t="shared" ref="I3:I62" si="0">H3+13</f>
         <v>44572</v>
       </c>
       <c r="J3" s="3">
@@ -3413,13 +3419,52 @@
       </c>
       <c r="L61" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="3">
+        <v>44642</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="0"/>
+        <v>44655</v>
+      </c>
+      <c r="J62" s="3">
+        <v>44641</v>
+      </c>
+      <c r="K62" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{3E3D086F-5BDD-4AC1-AFD2-A6A8E8F3B631}"/>
+      <autoFilter ref="A1:K26" xr:uid="{843EB117-01FE-4995-9C92-DFFEA3E12A1C}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B9927-DDDE-4DF6-9A61-2F2FD2638482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5297A06-A79F-4603-A14A-77D9012BC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>新加坡航空</t>
   </si>
   <si>
-    <t>Singapore Airlines</t>
-  </si>
-  <si>
     <t>SQ007</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
     <t>Garuda Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Singapore </t>
-  </si>
-  <si>
     <t>https://www.info.gov.hk/gia/general/202202/16/P2022021600686.htm</t>
   </si>
   <si>
@@ -764,6 +758,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202203/21/P2022032100575.htm</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SingaporeAirlines</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1215,7 +1215,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>38</v>
@@ -1905,10 +1905,10 @@
         <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1933,33 +1933,33 @@
         <v>44570</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="3">
         <v>44570</v>
@@ -1972,33 +1972,33 @@
         <v>44570</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H25" s="3">
         <v>44571</v>
@@ -2011,21 +2011,21 @@
         <v>44571</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>93</v>
@@ -2050,21 +2050,21 @@
         <v>44571</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>93</v>
@@ -2089,10 +2089,10 @@
         <v>44577</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -2128,10 +2128,10 @@
         <v>44578</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2167,33 +2167,33 @@
         <v>44579</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
         <v>171</v>
       </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
         <v>172</v>
-      </c>
-      <c r="F30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" t="s">
-        <v>173</v>
       </c>
       <c r="H30" s="3">
         <v>44583</v>
@@ -2206,21 +2206,21 @@
         <v>44583</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
         <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>93</v>
@@ -2245,10 +2245,10 @@
         <v>44583</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2284,10 +2284,10 @@
         <v>44584</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2323,33 +2323,33 @@
         <v>44586</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H34" s="3">
         <v>44587</v>
@@ -2362,21 +2362,21 @@
         <v>44587</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>93</v>
@@ -2401,10 +2401,10 @@
         <v>44587</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -2440,10 +2440,10 @@
         <v>44588</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -2479,10 +2479,10 @@
         <v>44595</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2518,10 +2518,10 @@
         <v>44595</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2532,19 +2532,19 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" t="s">
         <v>186</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="s">
         <v>187</v>
       </c>
-      <c r="E39" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" t="s">
-        <v>188</v>
-      </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H39" s="3">
         <v>44599</v>
@@ -2557,10 +2557,10 @@
         <v>44599</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2596,33 +2596,33 @@
         <v>44600</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H41" s="3">
         <v>44604</v>
@@ -2635,21 +2635,21 @@
         <v>44604</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>93</v>
@@ -2674,10 +2674,10 @@
         <v>44604</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2688,19 +2688,19 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H43" s="3">
         <v>44606</v>
@@ -2713,10 +2713,10 @@
         <v>44606</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2724,22 +2724,22 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H44" s="3">
         <v>44608</v>
@@ -2752,10 +2752,10 @@
         <v>44608</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2763,22 +2763,22 @@
         <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H45" s="3">
         <v>44608</v>
@@ -2791,33 +2791,33 @@
         <v>44608</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H46" s="3">
         <v>44608</v>
@@ -2830,10 +2830,10 @@
         <v>44608</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2869,10 +2869,10 @@
         <v>44612</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2908,33 +2908,33 @@
         <v>44613</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
         <v>216</v>
       </c>
-      <c r="B49" t="s">
-        <v>218</v>
-      </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H49" s="3">
         <v>44613</v>
@@ -2947,33 +2947,33 @@
         <v>44613</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H50" s="3">
         <v>44621</v>
@@ -2986,21 +2986,21 @@
         <v>44621</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>93</v>
@@ -3025,10 +3025,10 @@
         <v>44621</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3039,19 +3039,19 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H52" s="3">
         <v>44623</v>
@@ -3064,33 +3064,33 @@
         <v>44622</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H53" s="3">
         <v>44628</v>
@@ -3103,10 +3103,10 @@
         <v>44627</v>
       </c>
       <c r="K53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3142,10 +3142,10 @@
         <v>44631</v>
       </c>
       <c r="K54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3181,10 +3181,10 @@
         <v>44633</v>
       </c>
       <c r="K55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3192,22 +3192,22 @@
         <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G56" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H56" s="3">
         <v>44637</v>
@@ -3220,33 +3220,33 @@
         <v>44636</v>
       </c>
       <c r="K56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H57" s="3">
         <v>44637</v>
@@ -3259,21 +3259,21 @@
         <v>44636</v>
       </c>
       <c r="K57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>93</v>
@@ -3298,33 +3298,33 @@
         <v>44636</v>
       </c>
       <c r="K58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
         <v>187</v>
       </c>
-      <c r="E59" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" t="s">
-        <v>188</v>
-      </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H59" s="3">
         <v>44639</v>
@@ -3337,10 +3337,10 @@
         <v>44638</v>
       </c>
       <c r="K59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3351,19 +3351,19 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H60" s="3">
         <v>44640</v>
@@ -3376,10 +3376,10 @@
         <v>44640</v>
       </c>
       <c r="K60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>93</v>
@@ -3415,10 +3415,10 @@
         <v>44640</v>
       </c>
       <c r="K61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>37</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -3454,17 +3454,17 @@
         <v>44641</v>
       </c>
       <c r="K62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{843EB117-01FE-4995-9C92-DFFEA3E12A1C}"/>
+      <autoFilter ref="A1:K26" xr:uid="{E304C89A-0D9E-4389-98D8-D87CDA569ADB}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5297A06-A79F-4603-A14A-77D9012BC9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F9EAC-DB70-424A-905D-61AC4F9CCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="244">
   <si>
     <t>airline_zh</t>
   </si>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>SingaporeAirlines</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/02/P2022040200640.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/02/P2022040200636.htm</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3460,11 +3466,89 @@
         <v>239</v>
       </c>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="3">
+        <v>44654</v>
+      </c>
+      <c r="I63" s="3">
+        <f>H63+6</f>
+        <v>44660</v>
+      </c>
+      <c r="J63" s="3">
+        <v>44653</v>
+      </c>
+      <c r="K63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="3">
+        <v>44654</v>
+      </c>
+      <c r="I64" s="3">
+        <f>H64+6</f>
+        <v>44660</v>
+      </c>
+      <c r="J64" s="3">
+        <v>44653</v>
+      </c>
+      <c r="K64" t="s">
+        <v>242</v>
+      </c>
+      <c r="L64" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{E304C89A-0D9E-4389-98D8-D87CDA569ADB}"/>
+      <autoFilter ref="A1:K26" xr:uid="{D90B0432-891F-4F52-9135-77837B06E868}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F9EAC-DB70-424A-905D-61AC4F9CCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58D544-B29C-437E-A17E-7D66C44C17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="249">
   <si>
     <t>airline_zh</t>
   </si>
@@ -770,6 +770,21 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/02/P2022040200636.htm</t>
+  </si>
+  <si>
+    <t>大韓航空</t>
+  </si>
+  <si>
+    <t>KE607</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/04/P2022040400620.htm</t>
+  </si>
+  <si>
+    <t>Korean Air</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/04/P2022040400621.htm</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1056,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3544,11 +3559,50 @@
         <v>243</v>
       </c>
     </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="3">
+        <v>44655</v>
+      </c>
+      <c r="I65" s="3">
+        <f>H65+6</f>
+        <v>44661</v>
+      </c>
+      <c r="J65" s="3">
+        <v>44655</v>
+      </c>
+      <c r="K65" t="s">
+        <v>246</v>
+      </c>
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{D90B0432-891F-4F52-9135-77837B06E868}"/>
+      <autoFilter ref="A1:K26" xr:uid="{B73DAEAB-57DF-48A1-BDA7-CF745A4AAC70}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58D544-B29C-437E-A17E-7D66C44C17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CCDCEA-7C64-48A8-BD29-C911EF7B9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="251">
   <si>
     <t>airline_zh</t>
   </si>
@@ -785,6 +785,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/04/P2022040400621.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/05/P2022040500555.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/05/P2022040500557.htm</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1062,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3598,11 +3604,167 @@
         <v>248</v>
       </c>
     </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="3">
+        <v>44656</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" ref="I66:I69" si="1">H66+6</f>
+        <v>44662</v>
+      </c>
+      <c r="J66" s="3">
+        <v>44656</v>
+      </c>
+      <c r="K66" t="s">
+        <v>249</v>
+      </c>
+      <c r="L66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="3">
+        <v>44656</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="1"/>
+        <v>44662</v>
+      </c>
+      <c r="J67" s="3">
+        <v>44656</v>
+      </c>
+      <c r="K67" t="s">
+        <v>249</v>
+      </c>
+      <c r="L67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="3">
+        <v>44657</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="1"/>
+        <v>44663</v>
+      </c>
+      <c r="J68" s="3">
+        <v>44656</v>
+      </c>
+      <c r="K68" t="s">
+        <v>249</v>
+      </c>
+      <c r="L68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="3">
+        <v>44657</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="1"/>
+        <v>44663</v>
+      </c>
+      <c r="J69" s="3">
+        <v>44656</v>
+      </c>
+      <c r="K69" t="s">
+        <v>249</v>
+      </c>
+      <c r="L69" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{B73DAEAB-57DF-48A1-BDA7-CF745A4AAC70}"/>
+      <autoFilter ref="A1:K26" xr:uid="{715C285C-B5A5-4BE5-BFF6-91FC7D68D6B8}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CCDCEA-7C64-48A8-BD29-C911EF7B9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC12CC-448A-45E5-BCE2-6F5E110C97F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="258">
   <si>
     <t>airline_zh</t>
   </si>
@@ -791,6 +791,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/05/P2022040500557.htm</t>
+  </si>
+  <si>
+    <t>CX798</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/09/P2022040900498.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/09/P2022040900495.htm</t>
+  </si>
+  <si>
+    <t>JL029</t>
+  </si>
+  <si>
+    <t>Japan Airlines</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/10/P2022041000537.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/10/P2022041000538.htm</t>
   </si>
 </sst>
 </file>
@@ -838,12 +859,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,10 +1084,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3630,7 +3652,7 @@
         <v>44656</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I69" si="1">H66+6</f>
+        <f t="shared" ref="I66:I70" si="1">H66+6</f>
         <v>44662</v>
       </c>
       <c r="J66" s="3">
@@ -3758,13 +3780,121 @@
       </c>
       <c r="L69" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" s="3">
+        <v>44661</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="1"/>
+        <v>44667</v>
+      </c>
+      <c r="J70" s="3">
+        <v>44660</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="3">
+        <v>44661</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" ref="I71:I72" si="2">H71+6</f>
+        <v>44667</v>
+      </c>
+      <c r="J71" s="3">
+        <v>44661</v>
+      </c>
+      <c r="K71" t="s">
+        <v>256</v>
+      </c>
+      <c r="L71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="3">
+        <v>44662</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="2"/>
+        <v>44668</v>
+      </c>
+      <c r="J72" s="3">
+        <v>44661</v>
+      </c>
+      <c r="K72" t="s">
+        <v>256</v>
+      </c>
+      <c r="L72" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{715C285C-B5A5-4BE5-BFF6-91FC7D68D6B8}"/>
+      <autoFilter ref="A1:K26" xr:uid="{5FB53F0D-F4B8-4477-9D1B-C441FFDEE9A8}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC12CC-448A-45E5-BCE2-6F5E110C97F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5ED34E-4870-4E46-89C1-31C69670C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="260">
   <si>
     <t>airline_zh</t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/10/P2022041000538.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/11/P2022041100602.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/11/P2022041100604.htm</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1090,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3841,7 +3847,7 @@
         <v>44661</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" ref="I71:I72" si="2">H71+6</f>
+        <f t="shared" ref="I71:I74" si="2">H71+6</f>
         <v>44667</v>
       </c>
       <c r="J71" s="3">
@@ -3888,13 +3894,85 @@
       </c>
       <c r="L72" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="3">
+        <v>44663</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="2"/>
+        <v>44669</v>
+      </c>
+      <c r="J73" s="3">
+        <v>44662</v>
+      </c>
+      <c r="K73" t="s">
+        <v>258</v>
+      </c>
+      <c r="L73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="3">
+        <v>44663</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="2"/>
+        <v>44669</v>
+      </c>
+      <c r="J74" s="3">
+        <v>44662</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{5FB53F0D-F4B8-4477-9D1B-C441FFDEE9A8}"/>
+      <autoFilter ref="A1:K26" xr:uid="{C1FB7D04-F53F-46F8-94F0-11F93E3C0052}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5ED34E-4870-4E46-89C1-31C69670C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD5C99-C2AD-4E27-AACC-50A818CF3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="266">
   <si>
     <t>airline_zh</t>
   </si>
@@ -818,6 +818,24 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/11/P2022041100604.htm</t>
+  </si>
+  <si>
+    <t>CX252</t>
+  </si>
+  <si>
+    <t>倫敦</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/13/P2022041300549.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/13/P2022041300548.htm?fontSize</t>
+  </si>
+  <si>
+    <t>日本航空</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1108,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3789,6 +3807,9 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
@@ -3825,6 +3846,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>44661</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" ref="I71:I74" si="2">H71+6</f>
+        <f t="shared" ref="I71:I75" si="2">H71+6</f>
         <v>44667</v>
       </c>
       <c r="J71" s="3">
@@ -3861,6 +3885,9 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>265</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>255</v>
       </c>
@@ -3889,7 +3916,7 @@
       <c r="J72" s="3">
         <v>44661</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="5" t="s">
         <v>256</v>
       </c>
       <c r="L72" t="s">
@@ -3897,6 +3924,9 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>146</v>
       </c>
@@ -3933,6 +3963,9 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3966,13 +3999,91 @@
       </c>
       <c r="L74" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>261</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="3">
+        <v>44665</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="2"/>
+        <v>44671</v>
+      </c>
+      <c r="J75" s="3">
+        <v>44664</v>
+      </c>
+      <c r="K75" t="s">
+        <v>263</v>
+      </c>
+      <c r="L75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="3">
+        <v>44665</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" ref="I76" si="3">H76+6</f>
+        <v>44671</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44664</v>
+      </c>
+      <c r="K76" t="s">
+        <v>263</v>
+      </c>
+      <c r="L76" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{C1FB7D04-F53F-46F8-94F0-11F93E3C0052}"/>
+      <autoFilter ref="A1:K26" xr:uid="{3428162A-5819-45F3-ACB0-51ECF93D94B8}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD5C99-C2AD-4E27-AACC-50A818CF3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B3A88B-EAB7-4E26-A961-62051DB8CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="268">
   <si>
     <t>airline_zh</t>
   </si>
@@ -836,6 +836,12 @@
   </si>
   <si>
     <t>日本航空</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/14/P2022041400647.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/14/P2022041400646.htm</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4066,7 +4072,7 @@
         <v>44665</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" ref="I76" si="3">H76+6</f>
+        <f t="shared" ref="I76:I77" si="3">H76+6</f>
         <v>44671</v>
       </c>
       <c r="J76" s="3">
@@ -4077,13 +4083,169 @@
       </c>
       <c r="L76" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" s="3">
+        <v>44666</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="3"/>
+        <v>44672</v>
+      </c>
+      <c r="J77" s="3">
+        <v>44665</v>
+      </c>
+      <c r="K77" t="s">
+        <v>266</v>
+      </c>
+      <c r="L77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="3">
+        <v>44666</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" ref="I78:I80" si="4">H78+6</f>
+        <v>44672</v>
+      </c>
+      <c r="J78" s="3">
+        <v>44665</v>
+      </c>
+      <c r="K78" t="s">
+        <v>266</v>
+      </c>
+      <c r="L78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79" s="3">
+        <v>44666</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="4"/>
+        <v>44672</v>
+      </c>
+      <c r="J79" s="3">
+        <v>44665</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80" s="3">
+        <v>44667</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="4"/>
+        <v>44673</v>
+      </c>
+      <c r="J80" s="3">
+        <v>44666</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L80" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{3428162A-5819-45F3-ACB0-51ECF93D94B8}"/>
+      <autoFilter ref="A1:K26" xr:uid="{151B2E97-C732-4C37-80DA-534DA046947B}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B3A88B-EAB7-4E26-A961-62051DB8CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A10EA5-7D98-4202-A80D-9609F4A46CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="271">
   <si>
     <t>airline_zh</t>
   </si>
@@ -842,6 +842,15 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/14/P2022041400646.htm</t>
+  </si>
+  <si>
+    <t>CX865</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/16/P2022041600547.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/16/P2022041600549.htm</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1123,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4150,7 +4159,7 @@
         <v>44666</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" ref="I78:I80" si="4">H78+6</f>
+        <f t="shared" ref="I78:I82" si="4">H78+6</f>
         <v>44672</v>
       </c>
       <c r="J78" s="3">
@@ -4239,13 +4248,91 @@
       </c>
       <c r="L80" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" s="3">
+        <v>44668</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="4"/>
+        <v>44674</v>
+      </c>
+      <c r="J81" s="3">
+        <v>44667</v>
+      </c>
+      <c r="K81" t="s">
+        <v>269</v>
+      </c>
+      <c r="L81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="3">
+        <v>44668</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="4"/>
+        <v>44674</v>
+      </c>
+      <c r="J82" s="3">
+        <v>44667</v>
+      </c>
+      <c r="K82" t="s">
+        <v>269</v>
+      </c>
+      <c r="L82" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{151B2E97-C732-4C37-80DA-534DA046947B}"/>
+      <autoFilter ref="A1:K26" xr:uid="{FD61DA1E-F9F8-4D20-909E-ADADE2A1FDE1}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A10EA5-7D98-4202-A80D-9609F4A46CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99AD9C-EAAB-428B-8345-B35455292EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="278">
   <si>
     <t>airline_zh</t>
   </si>
@@ -851,6 +851,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/16/P2022041600549.htm</t>
+  </si>
+  <si>
+    <t>AI1316</t>
+  </si>
+  <si>
+    <t>新德里</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/17/P2022041700652.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/17/P2022041700651.htm</t>
+  </si>
+  <si>
+    <t>加爾各答</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1144,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4159,7 +4180,7 @@
         <v>44666</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" ref="I78:I82" si="4">H78+6</f>
+        <f t="shared" ref="I78:I84" si="4">H78+6</f>
         <v>44672</v>
       </c>
       <c r="J78" s="3">
@@ -4326,13 +4347,91 @@
       </c>
       <c r="L82" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G83" t="s">
+        <v>273</v>
+      </c>
+      <c r="H83" s="3">
+        <v>44669</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="4"/>
+        <v>44675</v>
+      </c>
+      <c r="J83" s="3">
+        <v>44668</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H84" s="3">
+        <v>44669</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="4"/>
+        <v>44675</v>
+      </c>
+      <c r="J84" s="3">
+        <v>44668</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L84" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{FD61DA1E-F9F8-4D20-909E-ADADE2A1FDE1}"/>
+      <autoFilter ref="A1:K26" xr:uid="{B66FED87-525D-4786-8B54-11CA64B0A40E}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99AD9C-EAAB-428B-8345-B35455292EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9AD41-6C88-431C-B3D0-66B1297FDD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="280">
   <si>
     <t>airline_zh</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>加爾各答</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/18/P2022041800514.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/18/P2022041800507.htm</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1150,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4180,7 +4186,7 @@
         <v>44666</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" ref="I78:I84" si="4">H78+6</f>
+        <f t="shared" ref="I78:I85" si="4">H78+6</f>
         <v>44672</v>
       </c>
       <c r="J78" s="3">
@@ -4425,13 +4431,91 @@
       </c>
       <c r="L84" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="3">
+        <v>44670</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="4"/>
+        <v>44676</v>
+      </c>
+      <c r="J85" s="3">
+        <v>44669</v>
+      </c>
+      <c r="K85" t="s">
+        <v>278</v>
+      </c>
+      <c r="L85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" t="s">
+        <v>190</v>
+      </c>
+      <c r="H86" s="3">
+        <v>44670</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" ref="I86" si="5">H86+6</f>
+        <v>44676</v>
+      </c>
+      <c r="J86" s="3">
+        <v>44669</v>
+      </c>
+      <c r="K86" t="s">
+        <v>278</v>
+      </c>
+      <c r="L86" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{B66FED87-525D-4786-8B54-11CA64B0A40E}"/>
+      <autoFilter ref="A1:K26" xr:uid="{8A0CC957-A4D7-4FC7-88F0-B89E92C393D8}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9AD41-6C88-431C-B3D0-66B1297FDD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77529BD-3C06-41D4-A75E-F624C85E63BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="282">
   <si>
     <t>airline_zh</t>
   </si>
@@ -878,6 +878,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/18/P2022041800507.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/19/P2022041900600.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/19/P2022041900603.htm</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1156,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1228,10 +1234,10 @@
       <c r="J2" s="3">
         <v>44559</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1267,10 +1273,10 @@
       <c r="J3" s="3">
         <v>44559</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1306,10 +1312,10 @@
       <c r="J4" s="3">
         <v>44560</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1345,10 +1351,10 @@
       <c r="J5" s="3">
         <v>44560</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1384,10 +1390,10 @@
       <c r="J6" s="3">
         <v>44560</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1423,10 +1429,10 @@
       <c r="J7" s="3">
         <v>44561</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1462,10 +1468,10 @@
       <c r="J8" s="3">
         <v>44561</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1501,10 +1507,10 @@
       <c r="J9" s="3">
         <v>44563</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1540,10 +1546,10 @@
       <c r="J10" s="3">
         <v>44563</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1579,10 +1585,10 @@
       <c r="J11" s="3">
         <v>44564</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1618,10 +1624,10 @@
       <c r="J12" s="3">
         <v>44565</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1657,10 +1663,10 @@
       <c r="J13" s="3">
         <v>44565</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1696,10 +1702,10 @@
       <c r="J14" s="3">
         <v>44565</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1735,10 +1741,10 @@
       <c r="J15" s="3">
         <v>44565</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1774,10 +1780,10 @@
       <c r="J16" s="3">
         <v>44565</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1813,10 +1819,10 @@
       <c r="J17" s="3">
         <v>44566</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1852,10 +1858,10 @@
       <c r="J18" s="3">
         <v>44566</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1891,10 +1897,10 @@
       <c r="J19" s="3">
         <v>44566</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1930,10 +1936,10 @@
       <c r="J20" s="3">
         <v>44567</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1969,10 +1975,10 @@
       <c r="J21" s="3">
         <v>44567</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2008,10 +2014,10 @@
       <c r="J22" s="3">
         <v>44568</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2047,10 +2053,10 @@
       <c r="J23" s="3">
         <v>44570</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2086,10 +2092,10 @@
       <c r="J24" s="3">
         <v>44570</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2125,10 +2131,10 @@
       <c r="J25" s="3">
         <v>44571</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2164,10 +2170,10 @@
       <c r="J26" s="3">
         <v>44571</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2242,10 +2248,10 @@
       <c r="J28" s="3">
         <v>44578</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2320,10 +2326,10 @@
       <c r="J30" s="3">
         <v>44583</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2359,10 +2365,10 @@
       <c r="J31" s="3">
         <v>44583</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2749,10 +2755,10 @@
       <c r="J41" s="3">
         <v>44604</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2983,7 +2989,7 @@
       <c r="J47" s="3">
         <v>44612</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="5" t="s">
         <v>211</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -3259,7 +3265,7 @@
       <c r="K54" t="s">
         <v>224</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3337,7 +3343,7 @@
       <c r="K56" t="s">
         <v>228</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3376,7 +3382,7 @@
       <c r="K57" t="s">
         <v>228</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3415,7 +3421,7 @@
       <c r="K58" t="s">
         <v>228</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4498,7 +4504,7 @@
         <v>44670</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" ref="I86" si="5">H86+6</f>
+        <f t="shared" ref="I86:I87" si="5">H86+6</f>
         <v>44676</v>
       </c>
       <c r="J86" s="3">
@@ -4509,80 +4515,54 @@
       </c>
       <c r="L86" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" s="3">
+        <v>44671</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="5"/>
+        <v>44677</v>
+      </c>
+      <c r="J87" s="3">
+        <v>44670</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L87" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{8A0CC957-A4D7-4FC7-88F0-B89E92C393D8}"/>
+      <autoFilter ref="A1:K26" xr:uid="{19F61C24-7644-4C9C-BB70-040962844FB3}"/>
     </customSheetView>
   </customSheetViews>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K28" r:id="rId51" xr:uid="{11978C58-E853-4AF5-9002-B0D66F9C28B0}"/>
-    <hyperlink ref="K30" r:id="rId52" xr:uid="{E872D896-8751-48A2-A643-D3FA71BF80A3}"/>
-    <hyperlink ref="L30" r:id="rId53" xr:uid="{1AFFFFC6-965E-4075-BF29-DED551F3E2B4}"/>
-    <hyperlink ref="K31" r:id="rId54" xr:uid="{72FC5DC5-5CBA-4AC6-95FE-B6B04545B07E}"/>
-    <hyperlink ref="L31" r:id="rId55" xr:uid="{AAF2F3DC-D6F9-4C0A-B8D7-AF632BB1BA67}"/>
-    <hyperlink ref="L28" r:id="rId56" xr:uid="{0322E549-E54B-4E81-931B-2AD856525A89}"/>
-    <hyperlink ref="K41" r:id="rId57" xr:uid="{5E394BA6-2702-47B4-8972-E5FAC49A6DEA}"/>
-    <hyperlink ref="L41" r:id="rId58" xr:uid="{8B88A62F-2025-4113-8980-6E3FA5C5C353}"/>
-    <hyperlink ref="K47" r:id="rId59" xr:uid="{A5BF09DF-9B4D-4FC1-A8C2-BD090C41681A}"/>
-    <hyperlink ref="L54" r:id="rId60" xr:uid="{255F47DA-2964-496D-8154-C5C1E0C5B61B}"/>
-    <hyperlink ref="L56" r:id="rId61" xr:uid="{7F288AC9-021E-4BE5-A302-A5F59E19A461}"/>
-    <hyperlink ref="L57" r:id="rId62" xr:uid="{2BC43F7F-7765-4D46-BA58-496FDB8DB281}"/>
-    <hyperlink ref="L58" r:id="rId63" xr:uid="{228D3346-EED3-42F2-A593-D94AB23467FC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77529BD-3C06-41D4-A75E-F624C85E63BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E37AC2-2ED7-4D99-B743-6E15F9E8C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="284">
   <si>
     <t>airline_zh</t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/19/P2022041900603.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/20/P2022042000596.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/20/P2022042000598.htm</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1162,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4504,7 +4510,7 @@
         <v>44670</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" ref="I86:I87" si="5">H86+6</f>
+        <f t="shared" ref="I86:I88" si="5">H86+6</f>
         <v>44676</v>
       </c>
       <c r="J86" s="3">
@@ -4554,13 +4560,130 @@
       </c>
       <c r="L87" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" s="3">
+        <v>44672</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="5"/>
+        <v>44678</v>
+      </c>
+      <c r="J88" s="3">
+        <v>44671</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="3">
+        <v>44672</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" ref="I89:I90" si="6">H89+6</f>
+        <v>44678</v>
+      </c>
+      <c r="J89" s="3">
+        <v>44671</v>
+      </c>
+      <c r="K89" t="s">
+        <v>282</v>
+      </c>
+      <c r="L89" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90" s="3">
+        <v>44672</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="6"/>
+        <v>44678</v>
+      </c>
+      <c r="J90" s="3">
+        <v>44671</v>
+      </c>
+      <c r="K90" t="s">
+        <v>282</v>
+      </c>
+      <c r="L90" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{19F61C24-7644-4C9C-BB70-040962844FB3}"/>
+      <autoFilter ref="A1:K26" xr:uid="{2E99FF01-B1FD-4519-98EC-59EBD8754039}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E37AC2-2ED7-4D99-B743-6E15F9E8C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC222918-7AC6-4CEB-BE9B-04C5AC23A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="291">
   <si>
     <t>airline_zh</t>
   </si>
@@ -890,6 +890,27 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/20/P2022042000598.htm</t>
+  </si>
+  <si>
+    <t>CX100</t>
+  </si>
+  <si>
+    <t>澳洲</t>
+  </si>
+  <si>
+    <t>悉尼</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/21/P2022042100644.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/21/P2022042100643.htm</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
@@ -937,13 +958,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,10 +1185,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4627,7 +4650,7 @@
         <v>44672</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" ref="I89:I90" si="6">H89+6</f>
+        <f t="shared" ref="I89:I92" si="6">H89+6</f>
         <v>44678</v>
       </c>
       <c r="J89" s="3">
@@ -4677,13 +4700,91 @@
       </c>
       <c r="L90" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" s="3">
+        <v>44673</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="6"/>
+        <v>44679</v>
+      </c>
+      <c r="J91" s="3">
+        <v>44672</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E92" t="s">
+        <v>290</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" s="3">
+        <v>44673</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="6"/>
+        <v>44679</v>
+      </c>
+      <c r="J92" s="3">
+        <v>44672</v>
+      </c>
+      <c r="K92" t="s">
+        <v>287</v>
+      </c>
+      <c r="L92" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{2E99FF01-B1FD-4519-98EC-59EBD8754039}"/>
+      <autoFilter ref="A1:K26" xr:uid="{EF462F01-DC24-48C2-B562-1D924817C6EC}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC222918-7AC6-4CEB-BE9B-04C5AC23A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2C10B-EE09-482E-90E3-3B05E47E5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="303">
   <si>
     <t>airline_zh</t>
   </si>
@@ -911,6 +911,42 @@
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>OZ745</t>
+  </si>
+  <si>
+    <t>CX104</t>
+  </si>
+  <si>
+    <t>墨爾本</t>
+  </si>
+  <si>
+    <t>韓亞航空</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/23/P2022042300520.htm</t>
+  </si>
+  <si>
+    <t>Asiana Airlines</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/24/P2022042400523.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/24/P2022042400522.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/23/P2022042300521.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/27/P2022042700686.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/27/P2022042700685.htm</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1221,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4650,7 +4686,7 @@
         <v>44672</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" ref="I89:I92" si="6">H89+6</f>
+        <f t="shared" ref="I89:I96" si="6">H89+6</f>
         <v>44678</v>
       </c>
       <c r="J89" s="3">
@@ -4778,13 +4814,169 @@
       </c>
       <c r="L92" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" s="3">
+        <v>44675</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="6"/>
+        <v>44681</v>
+      </c>
+      <c r="J93" s="3">
+        <v>44674</v>
+      </c>
+      <c r="K93" t="s">
+        <v>295</v>
+      </c>
+      <c r="L93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E94" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" t="s">
+        <v>293</v>
+      </c>
+      <c r="G94" t="s">
+        <v>297</v>
+      </c>
+      <c r="H94" s="3">
+        <v>44675</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="6"/>
+        <v>44681</v>
+      </c>
+      <c r="J94" s="3">
+        <v>44674</v>
+      </c>
+      <c r="K94" t="s">
+        <v>295</v>
+      </c>
+      <c r="L94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H95" s="3">
+        <v>44676</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="6"/>
+        <v>44682</v>
+      </c>
+      <c r="J95" s="3">
+        <v>44675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>298</v>
+      </c>
+      <c r="L95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="3">
+        <v>44679</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="6"/>
+        <v>44685</v>
+      </c>
+      <c r="J96" s="3">
+        <v>44678</v>
+      </c>
+      <c r="K96" t="s">
+        <v>301</v>
+      </c>
+      <c r="L96" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{EF462F01-DC24-48C2-B562-1D924817C6EC}"/>
+      <autoFilter ref="A1:K26" xr:uid="{C6E5B1FC-87FB-4089-82C6-A1650191FCA1}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hk-banned-inbound-flight/banned_flight_599H.xlsx
+++ b/hk-banned-inbound-flight/banned_flight_599H.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Documents\banned_flight_599h\yyipHKG.github.io\hk-banned-inbound-flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2C10B-EE09-482E-90E3-3B05E47E5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678E296-2891-4D05-9270-EA28B0630ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="311">
   <si>
     <t>airline_zh</t>
   </si>
@@ -947,6 +947,30 @@
   </si>
   <si>
     <t>https://www.info.gov.hk/gia/general/202204/27/P2022042700685.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/28/P2022042800601.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/28/P2022042800600.htm</t>
+  </si>
+  <si>
+    <t>CX270</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/29/P2022042900675.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/29/P2022042900673.htm</t>
+  </si>
+  <si>
+    <t>CX162</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/30/P2022043000526.htm</t>
+  </si>
+  <si>
+    <t>https://www.info.gov.hk/gia/general/202204/30/P2022043000519.htm</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1245,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4686,7 +4710,7 @@
         <v>44672</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" ref="I89:I96" si="6">H89+6</f>
+        <f t="shared" ref="I89:I103" si="6">H89+6</f>
         <v>44678</v>
       </c>
       <c r="J89" s="3">
@@ -4970,13 +4994,286 @@
       </c>
       <c r="L96" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" s="3">
+        <v>44680</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="6"/>
+        <v>44686</v>
+      </c>
+      <c r="J97" s="3">
+        <v>44679</v>
+      </c>
+      <c r="K97" t="s">
+        <v>303</v>
+      </c>
+      <c r="L97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H98" s="3">
+        <v>44681</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="6"/>
+        <v>44687</v>
+      </c>
+      <c r="J98" s="3">
+        <v>44680</v>
+      </c>
+      <c r="K98" t="s">
+        <v>306</v>
+      </c>
+      <c r="L98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" s="3">
+        <v>44681</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="6"/>
+        <v>44687</v>
+      </c>
+      <c r="J99" s="3">
+        <v>44680</v>
+      </c>
+      <c r="K99" t="s">
+        <v>306</v>
+      </c>
+      <c r="L99" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H100" s="3">
+        <v>44681</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="6"/>
+        <v>44687</v>
+      </c>
+      <c r="J100" s="3">
+        <v>44680</v>
+      </c>
+      <c r="K100" t="s">
+        <v>306</v>
+      </c>
+      <c r="L100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" t="s">
+        <v>290</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G101" t="s">
+        <v>289</v>
+      </c>
+      <c r="H101" s="3">
+        <v>44682</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="6"/>
+        <v>44688</v>
+      </c>
+      <c r="J101" s="3">
+        <v>44681</v>
+      </c>
+      <c r="K101" t="s">
+        <v>309</v>
+      </c>
+      <c r="L101" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" s="3">
+        <v>44682</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="6"/>
+        <v>44688</v>
+      </c>
+      <c r="J102" s="3">
+        <v>44681</v>
+      </c>
+      <c r="K102" t="s">
+        <v>309</v>
+      </c>
+      <c r="L102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" s="3">
+        <v>44682</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="6"/>
+        <v>44688</v>
+      </c>
+      <c r="J103" s="3">
+        <v>44681</v>
+      </c>
+      <c r="K103" t="s">
+        <v>309</v>
+      </c>
+      <c r="L103" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D1F1CDC7-7748-49E3-9626-BB0A720AD03B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K26" xr:uid="{C6E5B1FC-87FB-4089-82C6-A1650191FCA1}"/>
+      <autoFilter ref="A1:K26" xr:uid="{B9ADD915-E6A2-48FA-8DC5-EE3A3880ABAD}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
